--- a/docs/assets/mkdocs_telnum_sretenka.xlsx
+++ b/docs/assets/mkdocs_telnum_sretenka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\_Общества\КН Холдинг\ИТО\Связь\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\share\mkdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,25 +15,19 @@
     <sheet name="Sretenka" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sretenka!$B$3:$H$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sretenka!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sretenka!$A$3:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sretenka!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Пользователь</t>
   </si>
   <si>
-    <t>Городской</t>
-  </si>
-  <si>
-    <t>МРМ</t>
-  </si>
-  <si>
     <t>Внутренний</t>
   </si>
   <si>
@@ -55,30 +49,15 @@
     <t>Ведущий специалист</t>
   </si>
   <si>
-    <t>:woman:</t>
-  </si>
-  <si>
-    <t>:bee:</t>
-  </si>
-  <si>
-    <t>Помещение</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Руководитель корпоративной группы</t>
   </si>
   <si>
     <t>Генеральный директор</t>
   </si>
   <si>
-    <t>:man_judge:</t>
-  </si>
-  <si>
     <t>Баканова Варвара Андреевна</t>
   </si>
   <si>
@@ -91,61 +70,52 @@
     <t>Пашенцева Анжела Николаевна</t>
   </si>
   <si>
-    <t>Varvara.A.Bakanova@lukoil.com</t>
-  </si>
-  <si>
-    <t>Nataliya.Gorbunova@lukoil.com</t>
-  </si>
-  <si>
-    <t>Marina.V.Ivanova@lukoil.com</t>
-  </si>
-  <si>
-    <t>Olga.I.Netochaeva@lukoil.com</t>
-  </si>
-  <si>
-    <t>dmitriy.ozeran@lukoil.com</t>
-  </si>
-  <si>
-    <t>Anzhela.Pashentseva2@lukoil.com</t>
-  </si>
-  <si>
     <t>Печина Надежда Николаевна</t>
   </si>
   <si>
-    <t>Nadezhda.Pechina2@lukoil.com</t>
-  </si>
-  <si>
     <t>Рогова Яна Вячеславовна</t>
   </si>
   <si>
     <t>Рязанов Антон Викторович</t>
   </si>
   <si>
-    <t>yana.v.rogova@lukoil.com</t>
-  </si>
-  <si>
-    <t>Anton.V.Ryazanov@lukoil.com</t>
-  </si>
-  <si>
     <t>Старкова Светлана Васильевна</t>
   </si>
   <si>
-    <t>Svetlana.V.Starkova@lukoil.com</t>
-  </si>
-  <si>
-    <t>(495) 980-3079</t>
-  </si>
-  <si>
-    <t>Marina.A.Solovieva@lukoil.com</t>
-  </si>
-  <si>
-    <t>Sergey.Stepanov@lukoil.com</t>
-  </si>
-  <si>
-    <t>К834</t>
-  </si>
-  <si>
-    <t>К835</t>
+    <t>nataliya.gorbunova@lukoil.com</t>
+  </si>
+  <si>
+    <t>marina.v.ivanova@lukoil.com</t>
+  </si>
+  <si>
+    <t>sergey.stepanov@lukoil.com</t>
+  </si>
+  <si>
+    <t>olga.netochaeva@lukoil.com</t>
+  </si>
+  <si>
+    <t>varvara.bakanova@lukoil.com</t>
+  </si>
+  <si>
+    <t>dmitrij.ozeran@lukoil.com</t>
+  </si>
+  <si>
+    <t>yana.rogova@lukoil.com</t>
+  </si>
+  <si>
+    <t>nadezhda.pechina@lukoil.com</t>
+  </si>
+  <si>
+    <t>anzhela.pashentseva@lukoil.com</t>
+  </si>
+  <si>
+    <t>anton.riazanov@lukoil.com</t>
+  </si>
+  <si>
+    <t>marina.a.solovieva@lukoil.com</t>
+  </si>
+  <si>
+    <t>svetlana.starkova@lukoil.com</t>
   </si>
 </sst>
 </file>
@@ -176,7 +146,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -231,15 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,11 +217,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,306 +530,220 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>83417</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>53000</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37022</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37802</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37670</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B7" s="1">
+        <v>74803</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17225</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>71665</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17217</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B11" s="1">
+        <v>13079</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>53000</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B12" s="1">
+        <v>52593</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>37099</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13079</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2">
-        <v>22585</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>37099</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.98425196850393704" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,полужирный"&amp;12Телефонные номера ООО "К.Н.Холдинг"</oddHeader>
   </headerFooter>
